--- a/Pruebas/TFG_PruebasCalibracion.xlsx
+++ b/Pruebas/TFG_PruebasCalibracion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Escritorio\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F0A527-0B21-4FBB-98FB-788B798F3A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AEDAD6-1ECC-4FE4-BB10-D011281BE310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1116" windowWidth="21600" windowHeight="11388" xr2:uid="{8E18D934-95B4-4A37-BEA5-50BF313784DC}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{8E18D934-95B4-4A37-BEA5-50BF313784DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
   <si>
     <t>CURVA DE CALIBRACION</t>
   </si>
@@ -119,13 +119,7 @@
     <t>STEVAL_YAW_5</t>
   </si>
   <si>
-    <t>±2</t>
-  </si>
-  <si>
     <t>Grados</t>
-  </si>
-  <si>
-    <t>±125</t>
   </si>
   <si>
     <t>±245</t>
@@ -404,9 +398,6 @@
     </r>
   </si>
   <si>
-    <t>CORRIENTE (A)</t>
-  </si>
-  <si>
     <t>CONSUMO REAL</t>
   </si>
   <si>
@@ -414,6 +405,30 @@
   </si>
   <si>
     <t>ARDUINO</t>
+  </si>
+  <si>
+    <t>CORRIENTE (mA)</t>
+  </si>
+  <si>
+    <t>±8</t>
+  </si>
+  <si>
+    <t>±12</t>
+  </si>
+  <si>
+    <t>±500</t>
+  </si>
+  <si>
+    <t>±2000</t>
+  </si>
+  <si>
+    <t>±1000</t>
+  </si>
+  <si>
+    <t>±16</t>
+  </si>
+  <si>
+    <t>±6</t>
   </si>
 </sst>
 </file>
@@ -11943,65 +11958,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14086B4-DD21-4083-852E-732E5CFE7369}">
   <dimension ref="A1:X136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D135" sqref="A132:D135"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="L2" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1">
         <v>0.01</v>
@@ -12034,9 +12049,9 @@
         <v>-130.72</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1">
         <v>-0.48</v>
@@ -12070,9 +12085,9 @@
         <v>-130.63999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1">
         <v>0.15</v>
@@ -12106,71 +12121,71 @@
         <v>-130.79</v>
       </c>
       <c r="U5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="U6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="L7" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1">
         <v>-1.01</v>
@@ -12204,9 +12219,9 @@
         <v>-134.72</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1">
         <v>-1.46</v>
@@ -12240,12 +12255,12 @@
         <v>-129.61000000000001</v>
       </c>
       <c r="T9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1">
         <v>-0.81</v>
@@ -12279,54 +12294,54 @@
         <v>-130.74</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="T11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="L12" s="2">
         <v>230</v>
       </c>
       <c r="T12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -12362,7 +12377,7 @@
         <v>-140.63</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -12404,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -12446,7 +12461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="T16">
         <v>45</v>
@@ -12455,7 +12470,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="T17">
         <v>60</v>
@@ -12464,7 +12479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="T18">
         <v>90</v>
@@ -12473,13 +12488,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="T19">
         <v>120</v>
@@ -12488,13 +12503,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="T20">
         <v>160</v>
@@ -12503,7 +12518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="T21">
         <v>180</v>
@@ -12512,7 +12527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="T22">
         <v>230</v>
@@ -12521,131 +12536,131 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1">
         <v>0.999</v>
@@ -12654,9 +12669,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1">
         <v>0.995</v>
@@ -12665,9 +12680,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1">
         <v>0.99399999999999999</v>
@@ -12676,9 +12691,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1">
         <v>0.99099999999999999</v>
@@ -12687,9 +12702,9 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1">
         <v>0.995</v>
@@ -12698,9 +12713,9 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1">
         <v>1.0349999999999999</v>
@@ -12709,7 +12724,7 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>1</v>
       </c>
@@ -12720,7 +12735,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>2</v>
       </c>
@@ -12731,7 +12746,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
@@ -12742,181 +12757,181 @@
         <v>0.99399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="76" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="15"/>
     </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I81" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="82" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -12946,9 +12961,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -12972,7 +12987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>5</v>
       </c>
@@ -13004,46 +13019,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="15"/>
     </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E87" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="H87" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B88" s="1">
         <v>0.08</v>
@@ -13073,9 +13088,9 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -13099,7 +13114,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
@@ -13131,42 +13146,42 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="15"/>
     </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B94" s="11">
         <v>0</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D94" s="11">
         <v>3.78</v>
@@ -13178,15 +13193,15 @@
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B95" s="8">
         <v>0.41</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D95" s="8">
         <v>4.2300000000000004</v>
@@ -13198,15 +13213,15 @@
         <v>10.34</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B96" s="10">
         <v>-12.53</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D96" s="10">
         <v>-27.52</v>
@@ -13218,41 +13233,41 @@
         <v>-41.39</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B99" s="15"/>
     </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B101" s="11">
         <v>89.85</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D101" s="11">
         <v>89.87</v>
@@ -13264,15 +13279,15 @@
         <v>88.61</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B102" s="8">
         <v>89.94</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D102" s="8">
         <v>88.92</v>
@@ -13284,15 +13299,15 @@
         <v>93.51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B103" s="8">
         <v>89.96</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D103" s="8">
         <v>88.01</v>
@@ -13304,15 +13319,15 @@
         <v>92.56</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B104" s="8">
         <v>89.84</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D104" s="8">
         <v>91.99</v>
@@ -13324,15 +13339,15 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B105" s="8">
         <v>89.93</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D105" s="8">
         <v>86.96</v>
@@ -13344,7 +13359,7 @@
         <v>94.73</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>10</v>
       </c>
@@ -13367,7 +13382,7 @@
         <v>93.312000000000012</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
@@ -13390,36 +13405,36 @@
         <v>3.1406400621529387</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B111" s="8">
         <v>90.01</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D111" s="8">
         <v>87.94</v>
@@ -13431,15 +13446,15 @@
         <v>94.63</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B112" s="8">
         <v>89.79</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D112" s="8">
         <v>92.88</v>
@@ -13451,15 +13466,15 @@
         <v>84.62</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B113" s="8">
         <v>89.8</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D113" s="8">
         <v>87.89</v>
@@ -13471,15 +13486,15 @@
         <v>91.64</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B114" s="8">
         <v>90.07</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D114" s="8">
         <v>92.96</v>
@@ -13491,15 +13506,15 @@
         <v>93.59</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B115" s="8">
         <v>89.99</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D115" s="8">
         <v>90.04</v>
@@ -13511,7 +13526,7 @@
         <v>95.37</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>10</v>
       </c>
@@ -13534,7 +13549,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>11</v>
       </c>
@@ -13557,36 +13572,36 @@
         <v>4.3414110609339893</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B121" s="8">
         <v>89.87</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D121" s="8">
         <v>93.98</v>
@@ -13598,15 +13613,15 @@
         <v>85.61</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B122" s="8">
         <v>89.92</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D122" s="8">
         <v>92.82</v>
@@ -13618,15 +13633,15 @@
         <v>87.61</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B123" s="8">
         <v>89.93</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D123" s="8">
         <v>91.02</v>
@@ -13638,15 +13653,15 @@
         <v>86.72</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B124" s="8">
         <v>89.89</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D124" s="8">
         <v>87.97</v>
@@ -13658,15 +13673,15 @@
         <v>88.63</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B125" s="8">
         <v>89.99</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D125" s="8">
         <v>92.91</v>
@@ -13678,7 +13693,7 @@
         <v>90.69</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>10</v>
       </c>
@@ -13701,7 +13716,7 @@
         <v>87.852000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>11</v>
       </c>
@@ -13724,27 +13739,27 @@
         <v>1.938174398757758</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B130" s="15"/>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D132" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>5</v>
       </c>
@@ -13755,28 +13770,28 @@
         <v>0.35</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ref="D133:D134" si="1">B133*C133</f>
-        <v>1.1479999999999999</v>
+        <f>5*C133</f>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B134" s="1">
         <v>3.1</v>
       </c>
       <c r="C134" s="1">
-        <v>0.71</v>
+        <v>0.41</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2010000000000001</v>
+        <f>5*C134</f>
+        <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B135" s="1">
         <v>5</v>
@@ -13785,11 +13800,11 @@
         <v>0.36</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" ref="D135" si="2">B135*C135</f>
+        <f>B135*C135</f>
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A130:B130"/>
